--- a/tabela_conversoes_blocosECalculos_nova.xlsx
+++ b/tabela_conversoes_blocosECalculos_nova.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diefe\Documents\login_2024\modelos\ModeloLogin_Cenario_2030_graficos_container\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0300C643-604F-4A92-8CAE-4A90F3E81C56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{586B61DE-64D0-40B2-B13B-4F4540E41A6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F018BFEA-7248-4E97-AD39-0CB3F87044D5}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="113">
   <si>
     <t>bloc/h</t>
   </si>
@@ -187,9 +187,6 @@
     <t>T0maximoSaiAm</t>
   </si>
   <si>
-    <t>totalviag</t>
-  </si>
-  <si>
     <t>2 nav</t>
   </si>
   <si>
@@ -202,12 +199,6 @@
     <t>T1maximoSaiAm</t>
   </si>
   <si>
-    <t>TcriacaoAM</t>
-  </si>
-  <si>
-    <t>TaxAM</t>
-  </si>
-  <si>
     <t>TOPCOMB</t>
   </si>
   <si>
@@ -314,15 +305,85 @@
   </si>
   <si>
     <t>navIni</t>
+  </si>
+  <si>
+    <t>Tviag HUB-AM</t>
+  </si>
+  <si>
+    <t>Tcarga</t>
+  </si>
+  <si>
+    <t>utilizado</t>
+  </si>
+  <si>
+    <t>totalviagDias</t>
+  </si>
+  <si>
+    <t>ChegaAM</t>
+  </si>
+  <si>
+    <t>ProntoAM</t>
+  </si>
+  <si>
+    <t>4nav</t>
+  </si>
+  <si>
+    <t>5nav</t>
+  </si>
+  <si>
+    <t>6nav</t>
+  </si>
+  <si>
+    <t>cont_hora</t>
+  </si>
+  <si>
+    <t>meu</t>
+  </si>
+  <si>
+    <t>CAB</t>
+  </si>
+  <si>
+    <t>comboio belem</t>
+  </si>
+  <si>
+    <t>entro</t>
+  </si>
+  <si>
+    <t>fund</t>
+  </si>
+  <si>
+    <t>saiofund</t>
+  </si>
+  <si>
+    <t>carg</t>
+  </si>
+  <si>
+    <t>saiocarg</t>
+  </si>
+  <si>
+    <t>descNav</t>
+  </si>
+  <si>
+    <t>DescComb</t>
+  </si>
+  <si>
+    <t>bl</t>
+  </si>
+  <si>
+    <t>TopNavLC</t>
+  </si>
+  <si>
+    <t>entra</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000000000000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -341,7 +402,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -381,6 +442,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -483,7 +562,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -506,6 +585,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -519,6 +603,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -837,8 +925,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{223EF029-D0CB-4100-ACB4-D863191E900C}">
   <dimension ref="C1:AH39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AH12" sqref="AH12"/>
+    <sheetView tabSelected="1" topLeftCell="L13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="W24" sqref="W24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -855,23 +943,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:34" x14ac:dyDescent="0.25">
+      <c r="J1">
+        <v>3272</v>
+      </c>
       <c r="K1" t="s">
         <v>27</v>
       </c>
       <c r="L1">
         <v>1440</v>
       </c>
+      <c r="M1">
+        <v>156</v>
+      </c>
+      <c r="N1" s="16">
+        <f>M4*M1</f>
+        <v>6240</v>
+      </c>
+      <c r="P1" t="s">
+        <v>38</v>
+      </c>
       <c r="R1" t="s">
         <v>29</v>
       </c>
       <c r="S1" t="s">
         <v>30</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="3:34" x14ac:dyDescent="0.25">
       <c r="H2">
         <v>864</v>
       </c>
+      <c r="K2">
+        <f>0.86*1550/2+0.16*1550</f>
+        <v>914.5</v>
+      </c>
+      <c r="N2" s="16">
+        <f>M5*M1</f>
+        <v>5616</v>
+      </c>
+      <c r="O2">
+        <f>N2+N3</f>
+        <v>8736</v>
+      </c>
+      <c r="P2" t="s">
+        <v>101</v>
+      </c>
       <c r="R2">
         <f>G39</f>
         <v>0.84</v>
@@ -880,6 +999,16 @@
         <f>G38</f>
         <v>0.16</v>
       </c>
+      <c r="AB2" t="s">
+        <v>111</v>
+      </c>
+      <c r="AC2">
+        <v>275</v>
+      </c>
+      <c r="AD2">
+        <f>AC2+AD3*2</f>
+        <v>305.66666666666669</v>
+      </c>
     </row>
     <row r="3" spans="3:34" x14ac:dyDescent="0.25">
       <c r="G3" t="s">
@@ -903,7 +1032,10 @@
       <c r="M3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N3" s="1"/>
+      <c r="N3" s="17">
+        <f>L14*M1</f>
+        <v>3120</v>
+      </c>
       <c r="O3" s="1" t="s">
         <v>11</v>
       </c>
@@ -912,6 +1044,20 @@
       </c>
       <c r="Q3" t="s">
         <v>10</v>
+      </c>
+      <c r="V3">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="W3">
+        <f>V3*24</f>
+        <v>110.39999999999999</v>
+      </c>
+      <c r="AC3">
+        <v>40</v>
+      </c>
+      <c r="AD3">
+        <f>AC3/Q5</f>
+        <v>15.333333333333334</v>
       </c>
     </row>
     <row r="4" spans="3:34" x14ac:dyDescent="0.25">
@@ -919,19 +1065,26 @@
         <v>31</v>
       </c>
       <c r="K4" s="10">
-        <f>E29</f>
-        <v>1580</v>
+        <f>1580/2+10</f>
+        <v>800</v>
       </c>
       <c r="L4" s="10">
         <v>20</v>
       </c>
       <c r="M4" s="10">
         <f>K4/L4</f>
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
+      <c r="W4">
+        <f>K8*2/(W3)</f>
+        <v>27.536231884057973</v>
+      </c>
+      <c r="X4" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="5" spans="3:34" x14ac:dyDescent="0.25">
       <c r="C5">
@@ -948,15 +1101,15 @@
         <v>32</v>
       </c>
       <c r="K5" s="10">
-        <f>E30</f>
-        <v>1720</v>
+        <f>1440/2</f>
+        <v>720</v>
       </c>
       <c r="L5" s="10">
         <v>20</v>
       </c>
       <c r="M5" s="10">
         <f>K5/L5</f>
-        <v>86</v>
+        <v>36</v>
       </c>
       <c r="N5" s="1">
         <f>3*20/L5</f>
@@ -971,8 +1124,15 @@
         <v>2.7155172413793101</v>
       </c>
       <c r="Q5" s="3">
-        <f>3*20/(L5*R2+L5*S2*2)</f>
-        <v>2.5862068965517238</v>
+        <f>3*20/ROUNDDOWN((L5*R2+L5*S2*2),0)</f>
+        <v>2.6086956521739131</v>
+      </c>
+      <c r="T5" t="s">
+        <v>100</v>
+      </c>
+      <c r="U5">
+        <f>Q6*L5</f>
+        <v>26.086956521739133</v>
       </c>
     </row>
     <row r="6" spans="3:34" x14ac:dyDescent="0.25">
@@ -994,14 +1154,14 @@
       </c>
       <c r="K6" s="1">
         <f>K5</f>
-        <v>1720</v>
+        <v>720</v>
       </c>
       <c r="L6" s="1">
         <v>20</v>
       </c>
       <c r="M6" s="1">
         <f>K6/L6</f>
-        <v>86</v>
+        <v>36</v>
       </c>
       <c r="N6" s="1">
         <f>3*12/L6</f>
@@ -1016,12 +1176,16 @@
         <v>1.6810344827586206</v>
       </c>
       <c r="Q6" s="3">
-        <f>3*12/(L6*R2+L6*S2*2)</f>
-        <v>1.5517241379310343</v>
+        <f>3*10/ROUNDDOWN((L6*R2+L6*S2*2),0)</f>
+        <v>1.3043478260869565</v>
       </c>
       <c r="S6">
         <f>Q6/3</f>
-        <v>0.51724137931034475</v>
+        <v>0.43478260869565216</v>
+      </c>
+      <c r="U6">
+        <f>K8*2/U5</f>
+        <v>116.53333333333332</v>
       </c>
     </row>
     <row r="7" spans="3:34" x14ac:dyDescent="0.25">
@@ -1030,19 +1194,27 @@
       </c>
       <c r="K7" s="1">
         <f>K4</f>
-        <v>1580</v>
+        <v>800</v>
       </c>
       <c r="L7" s="1">
         <v>20</v>
       </c>
       <c r="M7" s="1">
         <f>K7/L7</f>
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="N7" s="1"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
+      <c r="O7" s="3">
+        <v>323</v>
+      </c>
+      <c r="P7" s="25">
+        <f>M8/Q6</f>
+        <v>58.266666666666666</v>
+      </c>
+      <c r="Q7" s="3">
+        <f>20/Q6</f>
+        <v>15.333333333333334</v>
+      </c>
     </row>
     <row r="8" spans="3:34" x14ac:dyDescent="0.25">
       <c r="C8">
@@ -1059,21 +1231,25 @@
       </c>
       <c r="K8">
         <f>SUM(K6:K7)</f>
-        <v>3300</v>
+        <v>1520</v>
       </c>
       <c r="M8">
         <f>M7+M6</f>
-        <v>165</v>
+        <v>76</v>
+      </c>
+      <c r="O8" s="7">
+        <f>O7+P7</f>
+        <v>381.26666666666665</v>
       </c>
       <c r="P8" t="s">
         <v>40</v>
       </c>
-      <c r="AB8" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="AC8" s="20"/>
+      <c r="AB8" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC8" s="23"/>
       <c r="AD8" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="3:34" x14ac:dyDescent="0.25">
@@ -1087,18 +1263,27 @@
       </c>
       <c r="L9">
         <f>L10/24</f>
-        <v>4.958333333333333</v>
+        <v>5.416666666666667</v>
       </c>
       <c r="M9">
         <f>M10/24</f>
         <v>5.833333333333333</v>
       </c>
+      <c r="P9" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q9" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="R9" t="s">
+        <v>110</v>
+      </c>
       <c r="T9" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="U9">
         <f>T22+24+AA15+AB13</f>
-        <v>325.13333333333338</v>
+        <v>242.39999999999998</v>
       </c>
       <c r="AB9" t="s">
         <v>38</v>
@@ -1118,7 +1303,7 @@
         <v>17</v>
       </c>
       <c r="L10">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="M10">
         <v>140</v>
@@ -1126,25 +1311,37 @@
       <c r="N10">
         <v>135</v>
       </c>
+      <c r="P10">
+        <f>M8/Q5</f>
+        <v>29.133333333333333</v>
+      </c>
+      <c r="Q10">
+        <f>M8/Q6</f>
+        <v>58.266666666666666</v>
+      </c>
+      <c r="R10">
+        <f>L14/Q6</f>
+        <v>15.333333333333334</v>
+      </c>
       <c r="U10">
         <f>U9/24</f>
-        <v>13.547222222222224</v>
+        <v>10.1</v>
       </c>
       <c r="AB10">
         <f>M4</f>
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="AC10">
         <f>M5</f>
-        <v>86</v>
+        <v>36</v>
       </c>
       <c r="AD10">
         <f>AC10+AB10</f>
-        <v>165</v>
+        <v>76</v>
       </c>
       <c r="AE10">
         <f>AD10</f>
-        <v>165</v>
+        <v>76</v>
       </c>
       <c r="AG10">
         <v>0</v>
@@ -1159,29 +1356,36 @@
       </c>
       <c r="G11">
         <f>K4/K5</f>
-        <v>0.91860465116279066</v>
+        <v>1.1111111111111112</v>
+      </c>
+      <c r="K11" t="s">
+        <v>90</v>
       </c>
       <c r="L11">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="M11">
         <v>238</v>
       </c>
+      <c r="Q11" s="18">
+        <f>(L5*R2+L5*S2*2)</f>
+        <v>23.200000000000003</v>
+      </c>
       <c r="Y11" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="AA11" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="AB11">
         <f>AB10+AC10</f>
-        <v>165</v>
+        <v>76</v>
       </c>
       <c r="AE11">
         <v>8</v>
       </c>
       <c r="AF11" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="AG11">
         <f>AG10+AH10</f>
@@ -1198,7 +1402,7 @@
       </c>
       <c r="L12">
         <f>L11/24</f>
-        <v>9</v>
+        <v>9.375</v>
       </c>
       <c r="M12">
         <f>M11/24</f>
@@ -1208,22 +1412,22 @@
         <v>230</v>
       </c>
       <c r="AA12" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="AB12" s="7">
         <f>Q5</f>
-        <v>2.5862068965517238</v>
+        <v>2.6086956521739131</v>
       </c>
       <c r="AD12" s="7">
         <f>Q6</f>
-        <v>1.5517241379310343</v>
+        <v>1.3043478260869565</v>
       </c>
       <c r="AE12">
         <f>AD10*20</f>
-        <v>3300</v>
+        <v>1520</v>
       </c>
       <c r="AF12" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="AG12">
         <v>1.8</v>
@@ -1244,18 +1448,18 @@
         <v>0</v>
       </c>
       <c r="AA13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AB13">
         <f>AB11/AB12</f>
-        <v>63.800000000000011</v>
-      </c>
-      <c r="AD13">
+        <v>29.133333333333333</v>
+      </c>
+      <c r="AD13" s="11">
         <f>AD10/AD12</f>
-        <v>106.33333333333334</v>
+        <v>58.266666666666666</v>
       </c>
       <c r="AF13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AG13">
         <f>AG11/AG12</f>
@@ -1293,15 +1497,18 @@
         <f>N15/365</f>
         <v>3.0133561643835618</v>
       </c>
-      <c r="Z15" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA15">
+      <c r="Y15" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z15" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA15" s="11">
         <f>AD13+1</f>
-        <v>107.33333333333334</v>
+        <v>59.266666666666666</v>
       </c>
       <c r="AE15" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="3:34" x14ac:dyDescent="0.25">
@@ -1310,17 +1517,21 @@
         <v>17520</v>
       </c>
       <c r="R16" t="s">
+        <v>51</v>
+      </c>
+      <c r="T16" t="s">
+        <v>50</v>
+      </c>
+      <c r="V16" t="s">
         <v>52</v>
       </c>
-      <c r="T16" t="s">
-        <v>51</v>
-      </c>
-      <c r="V16" t="s">
-        <v>53</v>
+      <c r="AD16">
+        <f>AD13*2</f>
+        <v>116.53333333333333</v>
       </c>
       <c r="AF16">
         <f>S20-24-6</f>
-        <v>330</v>
+        <v>293</v>
       </c>
     </row>
     <row r="17" spans="3:32" x14ac:dyDescent="0.25">
@@ -1332,6 +1543,18 @@
       </c>
       <c r="S17" t="s">
         <v>22</v>
+      </c>
+      <c r="AD17">
+        <f>2*R10</f>
+        <v>30.666666666666668</v>
+      </c>
+      <c r="AE17">
+        <f>AD16+AD17</f>
+        <v>147.19999999999999</v>
+      </c>
+      <c r="AF17">
+        <f>168-AE17</f>
+        <v>20.800000000000011</v>
       </c>
     </row>
     <row r="18" spans="3:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1346,7 +1569,7 @@
       </c>
       <c r="K18" s="9">
         <f>M4+L13</f>
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="N18" t="s">
         <v>42</v>
@@ -1367,31 +1590,33 @@
         <v>168</v>
       </c>
       <c r="T18" s="15"/>
-      <c r="U18" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="V18" s="16"/>
-      <c r="W18" s="16"/>
+      <c r="U18" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="V18" s="19"/>
+      <c r="W18" s="19"/>
       <c r="X18" s="15"/>
       <c r="Y18" s="15"/>
+      <c r="Z18" s="15"/>
+      <c r="AA18" s="15"/>
     </row>
     <row r="19" spans="3:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E19" s="17" t="s">
+      <c r="E19" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="19"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="22"/>
       <c r="J19" s="1" t="s">
         <v>32</v>
       </c>
       <c r="K19" s="9">
         <f>M5+L14</f>
-        <v>106</v>
+        <v>56</v>
       </c>
       <c r="L19" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="N19" t="s">
         <v>43</v>
@@ -1404,8 +1629,7 @@
         <v>45</v>
       </c>
       <c r="S19" s="4">
-        <f>326</f>
-        <v>326</v>
+        <v>275</v>
       </c>
       <c r="T19" s="15">
         <f>R19+7</f>
@@ -1413,7 +1637,7 @@
       </c>
       <c r="U19" s="15">
         <f>S19+7*24</f>
-        <v>494</v>
+        <v>443</v>
       </c>
       <c r="V19" s="15">
         <f>T19+7</f>
@@ -1421,27 +1645,35 @@
       </c>
       <c r="W19" s="15">
         <f>U19+7*24</f>
-        <v>662</v>
+        <v>611</v>
       </c>
       <c r="X19" s="15">
         <f>V19+7</f>
         <v>21</v>
       </c>
       <c r="Y19" s="15">
-        <f>X19*24</f>
-        <v>504</v>
+        <f>W19+7*24</f>
+        <v>779</v>
+      </c>
+      <c r="Z19" s="15">
+        <f>Y19+7*24</f>
+        <v>947</v>
+      </c>
+      <c r="AA19" s="15">
+        <f>Z19+7*24</f>
+        <v>1115</v>
       </c>
       <c r="AB19" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="AC19" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="AD19" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="AE19" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="3:32" x14ac:dyDescent="0.25">
@@ -1453,22 +1685,22 @@
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
       <c r="J20" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K20">
         <f>K19+K18</f>
-        <v>185</v>
+        <v>96</v>
       </c>
       <c r="L20" s="11">
         <f>K20*20</f>
-        <v>3700</v>
+        <v>1920</v>
       </c>
       <c r="R20">
         <v>15</v>
       </c>
       <c r="S20" s="4">
-        <f>R20*24</f>
-        <v>360</v>
+        <f>S19+48</f>
+        <v>323</v>
       </c>
       <c r="T20" s="15">
         <f>R20+7</f>
@@ -1491,9 +1723,14 @@
         <v>36</v>
       </c>
       <c r="Y20" s="15">
-        <f>X20*24</f>
-        <v>864</v>
-      </c>
+        <f>Y19+48</f>
+        <v>827</v>
+      </c>
+      <c r="Z20" s="15">
+        <f>Y20+7*24</f>
+        <v>995</v>
+      </c>
+      <c r="AA20" s="15"/>
       <c r="AB20">
         <v>3</v>
       </c>
@@ -1524,25 +1761,35 @@
       <c r="S21" t="s">
         <v>44</v>
       </c>
+      <c r="Y21" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z21" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA21" s="15" t="s">
+        <v>98</v>
+      </c>
       <c r="AD21" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="AE21">
-        <v>360</v>
+        <f>S19</f>
+        <v>275</v>
       </c>
       <c r="AF21">
         <f>AF20+AE21</f>
-        <v>26568</v>
+        <v>26483</v>
       </c>
     </row>
     <row r="22" spans="3:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E22" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="19"/>
+      <c r="E22" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="22"/>
       <c r="P22" t="s">
         <v>46</v>
       </c>
@@ -1557,11 +1804,11 @@
         <v>130</v>
       </c>
       <c r="X22" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="Y22">
         <f>S20+(AC10/AD12)</f>
-        <v>415.42222222222222</v>
+        <v>350.6</v>
       </c>
     </row>
     <row r="23" spans="3:32" x14ac:dyDescent="0.25">
@@ -1581,6 +1828,9 @@
         <v>0</v>
       </c>
       <c r="I23" s="14"/>
+      <c r="O23" t="s">
+        <v>92</v>
+      </c>
       <c r="Q23" t="s">
         <v>48</v>
       </c>
@@ -1591,9 +1841,6 @@
       <c r="T23">
         <v>225</v>
       </c>
-      <c r="W23" t="s">
-        <v>55</v>
-      </c>
     </row>
     <row r="24" spans="3:32" x14ac:dyDescent="0.25">
       <c r="E24" s="12" t="s">
@@ -1625,34 +1872,47 @@
         <f>(J24+K24)/L24</f>
         <v>0.8465770171149144</v>
       </c>
+      <c r="O24">
+        <f>S19-AA15-T22-AD13</f>
+        <v>27.466666666666683</v>
+      </c>
       <c r="P24" t="s">
         <v>49</v>
       </c>
       <c r="Q24" s="5">
-        <v>0</v>
+        <f>S19-AA15-T22-AD13-24</f>
+        <v>3.4666666666666828</v>
       </c>
       <c r="R24">
         <f>Q24+$AA$15</f>
-        <v>107.33333333333334</v>
+        <v>62.733333333333348</v>
       </c>
       <c r="S24">
         <f>R24+$T$22</f>
-        <v>237.33333333333334</v>
+        <v>192.73333333333335</v>
       </c>
       <c r="T24" s="6">
         <f>S24+$AD$13*2</f>
-        <v>450</v>
+        <v>309.26666666666665</v>
+      </c>
+      <c r="U24">
+        <f>T24+$T$23</f>
+        <v>534.26666666666665</v>
+      </c>
+      <c r="V24">
+        <f>U24+$AA$15</f>
+        <v>593.5333333333333</v>
       </c>
       <c r="W24">
-        <f>Q24</f>
-        <v>0</v>
+        <f>V24/24</f>
+        <v>24.730555555555554</v>
       </c>
       <c r="Z24" s="8">
         <v>429</v>
       </c>
       <c r="AA24">
         <f>Z24-T24</f>
-        <v>-21</v>
+        <v>119.73333333333335</v>
       </c>
     </row>
     <row r="25" spans="3:32" x14ac:dyDescent="0.25">
@@ -1667,135 +1927,175 @@
         <v>3021</v>
       </c>
       <c r="M25" t="s">
-        <v>76</v>
+        <v>73</v>
+      </c>
+      <c r="O25">
+        <f>U19-AA15-T22-AD13</f>
+        <v>195.4666666666667</v>
       </c>
       <c r="P25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Q25" s="5">
-        <f>U19-T22-24-AA15-AB13</f>
-        <v>168.86666666666665</v>
+        <f>U19-AA15-T22-AD13-24</f>
+        <v>171.4666666666667</v>
       </c>
       <c r="R25">
         <f>Q25+$AA$15</f>
-        <v>276.2</v>
+        <v>230.73333333333335</v>
       </c>
       <c r="S25">
         <f>R25+$T$22</f>
-        <v>406.2</v>
+        <v>360.73333333333335</v>
       </c>
       <c r="T25" s="6">
         <f>S25+$AD$13*2</f>
-        <v>618.86666666666667</v>
-      </c>
-      <c r="W25">
-        <f>Q25</f>
-        <v>168.86666666666665</v>
+        <v>477.26666666666665</v>
+      </c>
+      <c r="U25">
+        <f t="shared" ref="U25:U29" si="1">T25+$T$23</f>
+        <v>702.26666666666665</v>
+      </c>
+      <c r="V25">
+        <f t="shared" ref="V25:V29" si="2">U25+$AA$15</f>
+        <v>761.5333333333333</v>
       </c>
       <c r="Z25" s="8"/>
       <c r="AA25">
         <f>Z25-T25</f>
-        <v>-618.86666666666667</v>
+        <v>-477.26666666666665</v>
       </c>
     </row>
     <row r="26" spans="3:32" x14ac:dyDescent="0.25">
       <c r="G26" t="s">
-        <v>81</v>
+        <v>78</v>
+      </c>
+      <c r="O26">
+        <f>Q25+7*24</f>
+        <v>339.4666666666667</v>
       </c>
       <c r="P26" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="Q26" s="5">
-        <f>Q25+7*24</f>
-        <v>336.86666666666667</v>
+        <f>W19-AA15-T22-AD13-24</f>
+        <v>339.4666666666667</v>
       </c>
       <c r="R26">
-        <f>Q26+$AB$13</f>
-        <v>400.66666666666669</v>
+        <f t="shared" ref="R26:R29" si="3">Q26+$AA$15</f>
+        <v>398.73333333333335</v>
       </c>
       <c r="S26">
-        <f>R26+$T$22</f>
-        <v>530.66666666666674</v>
+        <f t="shared" ref="S26:S29" si="4">R26+$T$22</f>
+        <v>528.73333333333335</v>
       </c>
       <c r="T26" s="6">
-        <f>S26+$AD$13*2</f>
-        <v>743.33333333333348</v>
-      </c>
-      <c r="U26" t="s">
-        <v>56</v>
+        <f t="shared" ref="T26:T29" si="5">S26+$AD$13*2</f>
+        <v>645.26666666666665</v>
+      </c>
+      <c r="U26">
+        <f t="shared" si="1"/>
+        <v>870.26666666666665</v>
       </c>
       <c r="V26">
+        <f t="shared" si="2"/>
+        <v>929.5333333333333</v>
+      </c>
+      <c r="X26">
         <v>0.6</v>
       </c>
       <c r="Z26" s="8"/>
       <c r="AA26">
         <f>Z26-T26</f>
-        <v>-743.33333333333348</v>
+        <v>-645.26666666666665</v>
       </c>
     </row>
     <row r="27" spans="3:32" x14ac:dyDescent="0.25">
       <c r="G27">
         <v>3272</v>
       </c>
+      <c r="O27">
+        <f t="shared" ref="O27:O28" si="6">Q26+7*24</f>
+        <v>507.4666666666667</v>
+      </c>
       <c r="P27" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="Q27" s="5">
-        <f>Q26+7*24</f>
-        <v>504.86666666666667</v>
+        <f>Y19-AA15-T22-AD13-24</f>
+        <v>507.4666666666667</v>
       </c>
       <c r="R27">
-        <f>Q27+$AB$13</f>
-        <v>568.66666666666674</v>
+        <f t="shared" si="3"/>
+        <v>566.73333333333335</v>
       </c>
       <c r="S27">
-        <f>R27+$T$22</f>
-        <v>698.66666666666674</v>
+        <f t="shared" si="4"/>
+        <v>696.73333333333335</v>
       </c>
       <c r="T27" s="6">
-        <f>S27+$AD$13*2</f>
-        <v>911.33333333333348</v>
+        <f t="shared" si="5"/>
+        <v>813.26666666666665</v>
+      </c>
+      <c r="U27">
+        <f t="shared" si="1"/>
+        <v>1038.2666666666667</v>
+      </c>
+      <c r="V27">
+        <f t="shared" si="2"/>
+        <v>1097.5333333333333</v>
       </c>
       <c r="Z27" s="8"/>
       <c r="AA27">
         <f>Z27-T27</f>
-        <v>-911.33333333333348</v>
+        <v>-813.26666666666665</v>
       </c>
     </row>
     <row r="28" spans="3:32" x14ac:dyDescent="0.25">
-      <c r="D28" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="E28" s="20"/>
-      <c r="G28" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="H28" s="20"/>
-      <c r="Q28">
-        <f>Q27+7*24/2</f>
-        <v>588.86666666666667</v>
-      </c>
-      <c r="R28" t="s">
-        <v>67</v>
-      </c>
-      <c r="S28" t="s">
-        <v>65</v>
-      </c>
-      <c r="T28" t="s">
+      <c r="D28" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="E28" s="23"/>
+      <c r="G28" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="H28" s="23"/>
+      <c r="L28" t="s">
+        <v>102</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="6"/>
+        <v>675.4666666666667</v>
+      </c>
+      <c r="Q28" s="5">
+        <f>Z19-AA15-T22-AD13</f>
+        <v>699.4666666666667</v>
+      </c>
+      <c r="R28">
+        <f t="shared" si="3"/>
+        <v>758.73333333333335</v>
+      </c>
+      <c r="S28">
+        <f t="shared" si="4"/>
+        <v>888.73333333333335</v>
+      </c>
+      <c r="T28" s="6">
+        <f t="shared" si="5"/>
+        <v>1005.2666666666667</v>
+      </c>
+      <c r="U28">
+        <f t="shared" si="1"/>
+        <v>1230.2666666666667</v>
+      </c>
+      <c r="V28">
+        <f t="shared" si="2"/>
+        <v>1289.5333333333333</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA28" t="s">
         <v>66</v>
-      </c>
-      <c r="U28" t="s">
-        <v>50</v>
-      </c>
-      <c r="V28">
-        <f>S23+S22</f>
-        <v>14.791666666666668</v>
-      </c>
-      <c r="Z28" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA28" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="29" spans="3:32" x14ac:dyDescent="0.25">
@@ -1809,9 +2109,35 @@
       <c r="G29" t="s">
         <v>38</v>
       </c>
-      <c r="Q29">
-        <f>Q25*1.5</f>
-        <v>253.29999999999995</v>
+      <c r="L29" t="s">
+        <v>103</v>
+      </c>
+      <c r="M29">
+        <v>4821</v>
+      </c>
+      <c r="Q29" s="5">
+        <f>AA19-AA15-T22-AD13</f>
+        <v>867.4666666666667</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="3"/>
+        <v>926.73333333333335</v>
+      </c>
+      <c r="S29">
+        <f t="shared" si="4"/>
+        <v>1056.7333333333333</v>
+      </c>
+      <c r="T29" s="6">
+        <f t="shared" si="5"/>
+        <v>1173.2666666666667</v>
+      </c>
+      <c r="U29">
+        <f t="shared" si="1"/>
+        <v>1398.2666666666667</v>
+      </c>
+      <c r="V29">
+        <f t="shared" si="2"/>
+        <v>1457.5333333333333</v>
       </c>
       <c r="Z29" t="b">
         <v>1</v>
@@ -1832,30 +2158,46 @@
       <c r="G30" t="s">
         <v>39</v>
       </c>
-      <c r="Q30">
-        <f>7*24</f>
-        <v>168</v>
+      <c r="L30" t="s">
+        <v>104</v>
+      </c>
+      <c r="M30">
+        <v>4827</v>
+      </c>
+      <c r="R30" t="s">
+        <v>64</v>
       </c>
       <c r="S30" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="T30" t="s">
-        <v>69</v>
+        <v>63</v>
+      </c>
+      <c r="U30" t="s">
+        <v>94</v>
+      </c>
+      <c r="V30" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="31" spans="3:32" x14ac:dyDescent="0.25">
-      <c r="S31">
-        <f>S24+$AB$13</f>
-        <v>301.13333333333333</v>
-      </c>
-      <c r="T31" s="7">
-        <f>S19-S31</f>
-        <v>24.866666666666674</v>
+      <c r="L31" t="s">
+        <v>105</v>
+      </c>
+      <c r="M31">
+        <v>4867</v>
+      </c>
+      <c r="U31" t="s">
+        <v>93</v>
+      </c>
+      <c r="V31">
+        <f>S23+S22</f>
+        <v>14.791666666666668</v>
       </c>
     </row>
     <row r="32" spans="3:32" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D32" t="s">
         <v>38</v>
@@ -1865,23 +2207,33 @@
         <v>228</v>
       </c>
       <c r="F32" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G32" t="s">
         <v>38</v>
       </c>
-      <c r="S32">
-        <f>S25+$AB$13</f>
-        <v>470</v>
-      </c>
-      <c r="W32" t="s">
-        <v>72</v>
-      </c>
-      <c r="X32" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="33" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="L32" t="s">
+        <v>106</v>
+      </c>
+      <c r="M32">
+        <v>5013</v>
+      </c>
+      <c r="N32">
+        <f>M32-M31</f>
+        <v>146</v>
+      </c>
+      <c r="O32">
+        <f>N32/24</f>
+        <v>6.083333333333333</v>
+      </c>
+      <c r="S32" t="s">
+        <v>65</v>
+      </c>
+      <c r="T32" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" spans="3:24" x14ac:dyDescent="0.25">
       <c r="D33" t="s">
         <v>39</v>
       </c>
@@ -1892,20 +2244,33 @@
       <c r="G33" t="s">
         <v>39</v>
       </c>
+      <c r="L33" t="s">
+        <v>107</v>
+      </c>
       <c r="S33">
-        <f>S26+$AB$13</f>
-        <v>594.4666666666667</v>
-      </c>
-    </row>
-    <row r="34" spans="3:19" x14ac:dyDescent="0.25">
+        <f>S24+$AB$13</f>
+        <v>221.86666666666667</v>
+      </c>
+      <c r="T33" s="7">
+        <f>S19-S33</f>
+        <v>53.133333333333326</v>
+      </c>
+    </row>
+    <row r="34" spans="3:24" x14ac:dyDescent="0.25">
       <c r="S34">
-        <f>S27+$AB$13</f>
-        <v>762.4666666666667</v>
-      </c>
-    </row>
-    <row r="35" spans="3:19" x14ac:dyDescent="0.25">
+        <f>S25+$AB$13</f>
+        <v>389.86666666666667</v>
+      </c>
+      <c r="W34" t="s">
+        <v>69</v>
+      </c>
+      <c r="X34" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="35" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D35" t="s">
         <v>38</v>
@@ -1915,13 +2280,17 @@
         <v>1334</v>
       </c>
       <c r="F35" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G35" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="36" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="S35">
+        <f>S26+$AB$13</f>
+        <v>557.86666666666667</v>
+      </c>
+    </row>
+    <row r="36" spans="3:24" x14ac:dyDescent="0.25">
       <c r="D36" t="s">
         <v>39</v>
       </c>
@@ -1932,8 +2301,12 @@
       <c r="G36" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="38" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="S36">
+        <f>S27+$AB$13</f>
+        <v>725.86666666666667</v>
+      </c>
+    </row>
+    <row r="38" spans="3:24" x14ac:dyDescent="0.25">
       <c r="E38">
         <f>E32+E33</f>
         <v>502</v>
@@ -1946,10 +2319,10 @@
         <v>0.16</v>
       </c>
       <c r="M38" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="39" spans="3:19" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="39" spans="3:24" x14ac:dyDescent="0.25">
       <c r="E39">
         <f>E35+E36</f>
         <v>2770</v>
@@ -1962,7 +2335,7 @@
         <v>0.84</v>
       </c>
       <c r="M39" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
